--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1578833.151138604</v>
+        <v>1576191.467524084</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673458</v>
+        <v>461523.3857480715</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10360362.55158292</v>
+        <v>10415799.51776592</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>130.1712092340067</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>178.8948621820428</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -744,22 +744,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>74.68513206265246</v>
       </c>
       <c r="X3" t="n">
-        <v>24.43564469502621</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.00402729331205</v>
       </c>
       <c r="R4" t="n">
-        <v>20.0040272933122</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>386.5772935125735</v>
+        <v>229.7983041917482</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>17.70198601719434</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -987,10 +987,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.6580132634846</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>8.743466988960883</v>
       </c>
       <c r="U6" t="n">
-        <v>158.5767538322765</v>
+        <v>225.8304936665192</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.86760685770953</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5779095086741</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.28299829717969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>33.17967084429506</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83170580711976</v>
+        <v>238.9742887161221</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>207.9014082622944</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679703711953</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>207.9676640912312</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4863514715117</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29913347719358</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.37232180742819</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1871329268861</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6790476831053</v>
+        <v>172.4807199469248</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>6.044077206777865</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>27.85664025635046</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4339940287773</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3841574853627</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>171.6933741293335</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.3498598144164</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>288.7511433632823</v>
+        <v>233.2715658672517</v>
       </c>
       <c r="I11" t="n">
-        <v>19.53007201344991</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.15636898111894</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>201.4146274292355</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.949422691779</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>46.40516128174706</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.6934939670195</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>86.64179915749276</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
-        <v>8.282546271489991</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.4601525254633</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
-        <v>189.4832755487706</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7670384496465</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>49.11969310881022</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>161.2835001746664</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.39811087628551</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2985930389547</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4529121465558</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1978462422561</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672525</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.617369850355</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>20.01825743298199</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440903</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>33.26025621763422</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>233.2715658672533</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001832</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
-        <v>130.6123915925113</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>98.20443080310424</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>356.5845196044203</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8432760127576</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>34.32106446352842</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.40931526047702</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2293,7 +2293,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>64.75643288577334</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417104</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.453391420147248</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>82.4729044930077</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>107.3870054807226</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>35.23631477519656</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.80302811979473</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238307</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>127.007846345564</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>137.9792024346617</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>107.4021082756238</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206835</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>107.4021082756255</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>72.80978492055094</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.8222414097409</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="C2" t="n">
-        <v>351.3361714764008</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="D2" t="n">
-        <v>351.3361714764008</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="G2" t="n">
         <v>141.7407511348962</v>
@@ -4325,55 +4325,55 @@
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262257</v>
+        <v>672.2420264262254</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262257</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262257</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="U2" t="n">
-        <v>482.8222414097409</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097409</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="W2" t="n">
-        <v>482.8222414097409</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097409</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097409</v>
+        <v>511.8624171433435</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>462.8355532210281</v>
+        <v>485.2430363127824</v>
       </c>
       <c r="C3" t="n">
-        <v>462.8355532210281</v>
+        <v>485.2430363127824</v>
       </c>
       <c r="D3" t="n">
-        <v>313.9011435597769</v>
+        <v>336.3086266515311</v>
       </c>
       <c r="E3" t="n">
-        <v>313.9011435597769</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="F3" t="n">
-        <v>313.9011435597769</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="G3" t="n">
-        <v>176.361962382226</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264284</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264284</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264284</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099435</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099435</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W3" t="n">
-        <v>487.5180226099435</v>
+        <v>674.6628213292671</v>
       </c>
       <c r="X3" t="n">
-        <v>462.8355532210281</v>
+        <v>485.2430363127824</v>
       </c>
       <c r="Y3" t="n">
-        <v>462.8355532210281</v>
+        <v>485.2430363127824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910429</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910429</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="R4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="S4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="T4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="U4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="V4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="W4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="X4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.24882464404146</v>
+        <v>29.24882464404147</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>888.7124668435229</v>
+        <v>1434.710791867856</v>
       </c>
       <c r="C5" t="n">
-        <v>519.7499499031112</v>
+        <v>1065.748274927445</v>
       </c>
       <c r="D5" t="n">
-        <v>519.7499499031112</v>
+        <v>1065.748274927445</v>
       </c>
       <c r="E5" t="n">
-        <v>519.7499499031112</v>
+        <v>679.9600223292002</v>
       </c>
       <c r="F5" t="n">
-        <v>512.8044491539077</v>
+        <v>268.9741175395927</v>
       </c>
       <c r="G5" t="n">
-        <v>122.3223344947425</v>
+        <v>36.85461835600859</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>36.85461835600859</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809305</v>
+        <v>36.85461835600859</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>122.3145011261499</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>301.1352304553229</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>559.8799194566309</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.148464578729</v>
+        <v>879.4526781788779</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>1208.810266619117</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545595</v>
+        <v>1506.478036654142</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172446</v>
+        <v>1726.029590732827</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904652</v>
+        <v>1842.73091780043</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904652</v>
+        <v>1824.850123843668</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642783</v>
+        <v>1824.850123843668</v>
       </c>
       <c r="T5" t="n">
-        <v>1826.151173794698</v>
+        <v>1824.850123843668</v>
       </c>
       <c r="U5" t="n">
-        <v>1572.544009457208</v>
+        <v>1824.850123843668</v>
       </c>
       <c r="V5" t="n">
-        <v>1241.481122113637</v>
+        <v>1824.850123843668</v>
       </c>
       <c r="W5" t="n">
-        <v>888.7124668435229</v>
+        <v>1824.850123843668</v>
       </c>
       <c r="X5" t="n">
-        <v>888.7124668435229</v>
+        <v>1824.850123843668</v>
       </c>
       <c r="Y5" t="n">
-        <v>888.7124668435229</v>
+        <v>1434.710791867856</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>767.9840153902086</v>
+        <v>803.0423665026993</v>
       </c>
       <c r="C6" t="n">
-        <v>593.5309861090816</v>
+        <v>628.5893372215724</v>
       </c>
       <c r="D6" t="n">
-        <v>444.5965764478304</v>
+        <v>479.6549275603211</v>
       </c>
       <c r="E6" t="n">
-        <v>285.3591214423749</v>
+        <v>320.4174725548656</v>
       </c>
       <c r="F6" t="n">
-        <v>138.8245634692599</v>
+        <v>173.8829145817506</v>
       </c>
       <c r="G6" t="n">
-        <v>138.8245634692599</v>
+        <v>36.85461835600859</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809305</v>
+        <v>36.85461835600859</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809305</v>
+        <v>36.85461835600859</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562316</v>
+        <v>68.93609211810428</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504519</v>
+        <v>201.9232653644103</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104395</v>
+        <v>427.0634725857399</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789488</v>
+        <v>709.1483434077636</v>
       </c>
       <c r="N6" t="n">
-        <v>1166.88538687358</v>
+        <v>1013.107806306464</v>
       </c>
       <c r="O6" t="n">
-        <v>1458.244633128146</v>
+        <v>1268.951536358885</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689047</v>
+        <v>1454.955619064347</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333487</v>
+        <v>1529.375226064139</v>
       </c>
       <c r="R6" t="n">
-        <v>1766.227047333487</v>
+        <v>1529.375226064139</v>
       </c>
       <c r="S6" t="n">
-        <v>1766.227047333487</v>
+        <v>1529.375226064139</v>
       </c>
       <c r="T6" t="n">
-        <v>1766.227047333487</v>
+        <v>1520.543441226805</v>
       </c>
       <c r="U6" t="n">
-        <v>1606.048508108965</v>
+        <v>1292.431831462644</v>
       </c>
       <c r="V6" t="n">
-        <v>1606.048508108965</v>
+        <v>1057.279723230901</v>
       </c>
       <c r="W6" t="n">
-        <v>1351.811151380763</v>
+        <v>803.0423665026993</v>
       </c>
       <c r="X6" t="n">
-        <v>1143.95965117523</v>
+        <v>803.0423665026993</v>
       </c>
       <c r="Y6" t="n">
-        <v>936.1993524102766</v>
+        <v>803.0423665026993</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>509.311966376246</v>
+        <v>375.5232606073066</v>
       </c>
       <c r="C7" t="n">
-        <v>340.3757834483391</v>
+        <v>375.5232606073066</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2591440360034</v>
+        <v>375.5232606073066</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2591440360034</v>
+        <v>375.5232606073066</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809305</v>
+        <v>228.6333131093963</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809305</v>
+        <v>60.3727984541699</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809305</v>
+        <v>60.3727984541699</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809305</v>
+        <v>60.3727984541699</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809305</v>
+        <v>36.85461835600859</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981521</v>
+        <v>71.66278688941114</v>
       </c>
       <c r="L7" t="n">
-        <v>185.7706748018941</v>
+        <v>146.1110562813915</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927332</v>
+        <v>227.8646009517959</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377461</v>
+        <v>315.5317549640432</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033659</v>
+        <v>376.1934721167872</v>
       </c>
       <c r="P7" t="n">
-        <v>520.2893470405991</v>
+        <v>409.0380796419481</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470405991</v>
+        <v>375.5232606073066</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470405991</v>
+        <v>375.5232606073066</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470405991</v>
+        <v>375.5232606073066</v>
       </c>
       <c r="T7" t="n">
-        <v>520.2893470405991</v>
+        <v>375.5232606073066</v>
       </c>
       <c r="U7" t="n">
-        <v>520.2893470405991</v>
+        <v>375.5232606073066</v>
       </c>
       <c r="V7" t="n">
-        <v>520.2893470405991</v>
+        <v>375.5232606073066</v>
       </c>
       <c r="W7" t="n">
-        <v>520.2893470405991</v>
+        <v>375.5232606073066</v>
       </c>
       <c r="X7" t="n">
-        <v>520.2893470405991</v>
+        <v>375.5232606073066</v>
       </c>
       <c r="Y7" t="n">
-        <v>520.2893470405991</v>
+        <v>375.5232606073066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1211.312048305167</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="C8" t="n">
-        <v>1211.312048305167</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="D8" t="n">
-        <v>853.0463496984166</v>
+        <v>1467.885475187953</v>
       </c>
       <c r="E8" t="n">
-        <v>467.2580971001724</v>
+        <v>1082.097222589709</v>
       </c>
       <c r="F8" t="n">
-        <v>56.27219231056483</v>
+        <v>671.1113178001012</v>
       </c>
       <c r="G8" t="n">
-        <v>44.32097432357517</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H8" t="n">
-        <v>44.32097432357517</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>44.32097432357517</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>156.739011496037</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K8" t="n">
-        <v>375.9630260936719</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>684.8315631733822</v>
+        <v>669.5878927711885</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.176760714421</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.20924434183</v>
+        <v>1417.28654013517</v>
       </c>
       <c r="O8" t="n">
-        <v>1797.393510791283</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2062.620156411778</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2213.62157504142</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2216.048716178759</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2216.048716178759</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T8" t="n">
-        <v>2006.047293691593</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="U8" t="n">
-        <v>1752.443283215638</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="V8" t="n">
-        <v>1421.380395872067</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="W8" t="n">
-        <v>1421.380395872067</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="X8" t="n">
-        <v>1211.312048305167</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="Y8" t="n">
-        <v>1211.312048305167</v>
+        <v>1826.151173794703</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>610.1180090633953</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="C9" t="n">
-        <v>435.6649797822683</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="D9" t="n">
-        <v>435.6649797822683</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="E9" t="n">
-        <v>276.4275247768128</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="F9" t="n">
-        <v>276.4275247768128</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5726243005384</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H9" t="n">
-        <v>44.32097432357517</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="I9" t="n">
-        <v>44.32097432357517</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>92.45854016584676</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>252.8881321538934</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>514.9280579783104</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>840.0731599628502</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.232530213222</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1484.510540339609</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1702.966697553529</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.079656946498</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1768.400544009702</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1629.827682467393</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T9" t="n">
-        <v>1435.202381777387</v>
+        <v>1592.004097892152</v>
       </c>
       <c r="U9" t="n">
-        <v>1435.202381777387</v>
+        <v>1363.902508025416</v>
       </c>
       <c r="V9" t="n">
-        <v>1200.050273545645</v>
+        <v>1128.750399793674</v>
       </c>
       <c r="W9" t="n">
-        <v>1193.94514505395</v>
+        <v>874.5130430654719</v>
       </c>
       <c r="X9" t="n">
-        <v>986.0936448484172</v>
+        <v>666.6615428599391</v>
       </c>
       <c r="Y9" t="n">
-        <v>778.3333460834633</v>
+        <v>458.9012440949851</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.3191071661408</v>
+        <v>71.50721699905321</v>
       </c>
       <c r="C10" t="n">
-        <v>362.3191071661408</v>
+        <v>71.50721699905321</v>
       </c>
       <c r="D10" t="n">
-        <v>362.3191071661408</v>
+        <v>71.50721699905321</v>
       </c>
       <c r="E10" t="n">
-        <v>362.3191071661408</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F10" t="n">
-        <v>362.3191071661408</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>194.2039616825274</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>44.32097432357517</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>44.32097432357517</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>44.32097432357517</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>95.6823013547054</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>191.3129145707733</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>295.4002708199193</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>404.8701882900891</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>485.6702863757494</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>535.7467578018312</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.7467578018312</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R10" t="n">
-        <v>535.7467578018312</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S10" t="n">
-        <v>535.7467578018312</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T10" t="n">
-        <v>535.7467578018312</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U10" t="n">
-        <v>362.3191071661408</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="V10" t="n">
-        <v>362.3191071661408</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="W10" t="n">
-        <v>362.3191071661408</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="X10" t="n">
-        <v>362.3191071661408</v>
+        <v>292.2997961425833</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.3191071661408</v>
+        <v>71.50721699905321</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1961.38769777739</v>
+        <v>2266.424947555043</v>
       </c>
       <c r="C11" t="n">
-        <v>1961.38769777739</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D11" t="n">
-        <v>1603.12199917064</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E11" t="n">
-        <v>1217.333746572396</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F11" t="n">
-        <v>806.347841782788</v>
+        <v>742.4225746200293</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8530338894382</v>
+        <v>328.4394675364358</v>
       </c>
       <c r="H11" t="n">
-        <v>100.1852123103652</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I11" t="n">
-        <v>80.45786684223393</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J11" t="n">
-        <v>317.3880320746712</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K11" t="n">
-        <v>723.2234501947032</v>
+        <v>841.9378825128753</v>
       </c>
       <c r="L11" t="n">
-        <v>1263.599934653013</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M11" t="n">
-        <v>1896.542330458665</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N11" t="n">
-        <v>2544.340204328186</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.702105990707</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P11" t="n">
-        <v>3618.889144608854</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q11" t="n">
-        <v>3928.313032718596</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.893342111696</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.765696676222</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T11" t="n">
-        <v>3722.316578060833</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.832312715602</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.769425372031</v>
+        <v>3769.398533126171</v>
       </c>
       <c r="W11" t="n">
-        <v>2785.000770101917</v>
+        <v>3416.629877856057</v>
       </c>
       <c r="X11" t="n">
-        <v>2738.126869817323</v>
+        <v>3043.164119594977</v>
       </c>
       <c r="Y11" t="n">
-        <v>2347.987537841512</v>
+        <v>2653.024787619165</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5545302742961</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1015009931691</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1670913319178</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9296363264624</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3950783533473</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
-        <v>176.3410440432266</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>88.82407519727433</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I12" t="n">
-        <v>80.45786684223393</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J12" t="n">
-        <v>80.45786684223393</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="K12" t="n">
-        <v>80.45786684223393</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="L12" t="n">
-        <v>512.927207808259</v>
+        <v>583.5439560698318</v>
       </c>
       <c r="M12" t="n">
-        <v>939.2566908345528</v>
+        <v>1175.562310321959</v>
       </c>
       <c r="N12" t="n">
-        <v>1491.562993485333</v>
+        <v>1797.658273721295</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.595563417533</v>
+        <v>2344.534748721489</v>
       </c>
       <c r="P12" t="n">
-        <v>2342.938719448448</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q12" t="n">
-        <v>2539.247168151212</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R12" t="n">
-        <v>2557.913016602452</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.215892839358</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.818644810297</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.771131224795</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.619022993052</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.381666264851</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.530166059318</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.769867294364</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>243.370493281291</v>
+        <v>850.9945487488452</v>
       </c>
       <c r="C13" t="n">
-        <v>243.3704932812909</v>
+        <v>682.0583658209383</v>
       </c>
       <c r="D13" t="n">
-        <v>243.3704932812909</v>
+        <v>632.4425141958775</v>
       </c>
       <c r="E13" t="n">
-        <v>243.3704932812909</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="F13" t="n">
-        <v>243.3704932812909</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G13" t="n">
-        <v>80.45786684223393</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H13" t="n">
-        <v>80.45786684223393</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I13" t="n">
-        <v>80.45786684223393</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J13" t="n">
-        <v>143.53505662839</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K13" t="n">
-        <v>377.0270927076816</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>731.342944997712</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M13" t="n">
-        <v>1115.308455583783</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N13" t="n">
-        <v>1495.578740955084</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.803602510215</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2094.125701226116</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2193.001193167696</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2114.82128319165</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.650987192706</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T13" t="n">
-        <v>1706.991479973962</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U13" t="n">
-        <v>1417.902746395926</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.218258190039</v>
+        <v>1770.842313657593</v>
       </c>
       <c r="W13" t="n">
-        <v>873.8010881530781</v>
+        <v>1481.425143620632</v>
       </c>
       <c r="X13" t="n">
-        <v>645.8115372550608</v>
+        <v>1253.435592722615</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.0189581115307</v>
+        <v>1032.643013579085</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200302</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>328.4394675364367</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608053</v>
@@ -5279,25 +5279,25 @@
         <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128765</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127287</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304026</v>
@@ -5309,19 +5309,19 @@
         <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>92.81162322608053</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608053</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072593</v>
+        <v>914.0526986331905</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593869</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>2128.167016284654</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>976.7330291259777</v>
+        <v>931.1710892086094</v>
       </c>
       <c r="C16" t="n">
-        <v>807.7968461980709</v>
+        <v>762.2349062807025</v>
       </c>
       <c r="D16" t="n">
-        <v>657.680206785735</v>
+        <v>612.1182668683667</v>
       </c>
       <c r="E16" t="n">
-        <v>509.7671132033418</v>
+        <v>464.2051732859736</v>
       </c>
       <c r="F16" t="n">
-        <v>362.8771657054315</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="G16" t="n">
-        <v>195.6629708800106</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H16" t="n">
         <v>175.4425088264937</v>
@@ -5437,16 +5437,16 @@
         <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>2394.779556008517</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>2105.703342323244</v>
       </c>
       <c r="V16" t="n">
-        <v>1668.591243136708</v>
+        <v>1851.018854117357</v>
       </c>
       <c r="W16" t="n">
-        <v>1379.174073099748</v>
+        <v>1561.601684080396</v>
       </c>
       <c r="X16" t="n">
-        <v>1379.174073099748</v>
+        <v>1333.612133182379</v>
       </c>
       <c r="Y16" t="n">
-        <v>1158.381493956217</v>
+        <v>1112.819554038849</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2266.424947555044</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1897.462430614633</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1539.196732007882</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>742.4225746200307</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>328.4394675364374</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
         <v>92.81162322608053</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608179</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K17" t="n">
         <v>841.937882512877</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M17" t="n">
         <v>2182.46222495769</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
         <v>4150.915188021281</v>
@@ -5543,22 +5543,22 @@
         <v>4555.113898070875</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750193</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.164119594978</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619166</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I18" t="n">
-        <v>93.85065580060311</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J18" t="n">
-        <v>93.85065580060311</v>
+        <v>240.4596049779264</v>
       </c>
       <c r="K18" t="n">
-        <v>424.3593983639619</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L18" t="n">
-        <v>915.0917312077131</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>964.2196729446337</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1586.31563634397</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O18" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
         <v>2552.77562977024</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>867.8413048512241</v>
+        <v>873.8816814720478</v>
       </c>
       <c r="C19" t="n">
-        <v>698.9051219233172</v>
+        <v>704.9454985441409</v>
       </c>
       <c r="D19" t="n">
-        <v>548.7884825109816</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E19" t="n">
-        <v>548.7884825109816</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F19" t="n">
-        <v>401.8985350130712</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G19" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H19" t="n">
         <v>92.81162322608053</v>
@@ -5674,49 +5674,49 @@
         <v>171.7937461156344</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>431.422473086198</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693323</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M19" t="n">
         <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S19" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="T19" t="n">
-        <v>2208.69699212455</v>
+        <v>2208.696992124549</v>
       </c>
       <c r="U19" t="n">
-        <v>1919.620778439276</v>
+        <v>1919.620778439275</v>
       </c>
       <c r="V19" t="n">
-        <v>1787.689069759972</v>
+        <v>1664.936290233388</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.271899723011</v>
+        <v>1375.519120196428</v>
       </c>
       <c r="X19" t="n">
-        <v>1270.282348824994</v>
+        <v>1276.322725445817</v>
       </c>
       <c r="Y19" t="n">
-        <v>1049.489769681464</v>
+        <v>1055.530146302287</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2266.424947555044</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1897.462430614633</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1539.196732007882</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
         <v>793.22209597083</v>
@@ -5747,13 +5747,13 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608043</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L20" t="n">
         <v>1461.45766301865</v>
@@ -5762,13 +5762,13 @@
         <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
         <v>4514.497374127288</v>
@@ -5777,25 +5777,25 @@
         <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070875</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750193</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594978</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619166</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>93.85065580060311</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
-        <v>241.498637552449</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0073801158078</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>1062.739712959559</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>1062.739712959559</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>1684.835676358895</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.712151359089</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
         <v>2552.77562977024</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.9917339741374</v>
+        <v>717.7246654388886</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0555510462306</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9389116338948</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="E22" t="n">
-        <v>260.0258180515017</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="F22" t="n">
-        <v>260.0258180515017</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G22" t="n">
-        <v>92.81162322608053</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H22" t="n">
         <v>92.81162322608053</v>
@@ -5908,19 +5908,19 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
         <v>2020.132206020528</v>
@@ -5932,28 +5932,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T22" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U22" t="n">
-        <v>1736.450588178206</v>
+        <v>1892.256918553523</v>
       </c>
       <c r="V22" t="n">
-        <v>1481.766099972319</v>
+        <v>1637.572430347636</v>
       </c>
       <c r="W22" t="n">
-        <v>1192.348929935359</v>
+        <v>1348.155260310676</v>
       </c>
       <c r="X22" t="n">
-        <v>964.3593790373413</v>
+        <v>1120.165709412658</v>
       </c>
       <c r="Y22" t="n">
-        <v>743.5667998938112</v>
+        <v>899.3731302691283</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>318.834458340125</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.3159148556</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199798</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993911</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.13902995695</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058933</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154028</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179081</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900012</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>443.4949469776654</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
         <v>407.9027098310023</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258105</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602303</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396416</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614382</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179081</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362678</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993912</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956951</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058934</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154035</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622256</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
         <v>788.0191461778176</v>
@@ -6844,7 +6844,7 @@
         <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851784</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
         <v>175.9033664000583</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832662</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832662</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.84215317686</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970973</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035995</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892465</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6941,16 +6941,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,34 +7163,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133953</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7342,10 +7342,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7412,22 +7412,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7442,7 +7442,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098252</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819183</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695824</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871894</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892793</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041593</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,49 +7570,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038364</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797763</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580262</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.88785692446</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718573</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681612</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783595</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640065</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,16 +7643,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7664,10 +7664,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>562.8579153358621</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647309</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>631.564586536824</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>481.4479471244881</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7816,40 +7816,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235167</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579365</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949706</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>50.29152613729264</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>323.325939396722</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>99.49577990940213</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>4.485788756154392</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.4743248871677</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>88.63818461247374</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50.29152613729178</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.2915261372913</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4357323589719</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>184.2217382451276</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>50.29152613729104</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>50.29152613729093</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>121.5252517313167</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>127.5052245859329</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>50.2915261372911</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.29152613729119</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.4226649214603</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>221.4290186626471</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24263,7 +24263,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.37858876179</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>83.05123379926114</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>111.1976478713726</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.0289520621426</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>40.23897475306381</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>40.23897475306318</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>114.1584408891663</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>73.62417772602083</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>32.89260457059838</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>73.62417772601823</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834617.4124686365</v>
+        <v>896976.4599971172</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896976.4599971174</v>
+        <v>896976.4599971175</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896976.4599971175</v>
+        <v>896976.4599971174</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896976.4599971174</v>
+        <v>896976.4599971173</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117841</v>
-      </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>484893.3234797086</v>
+        <v>521741.85156472</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.8515647201</v>
+        <v>521741.85156472</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.8515647201</v>
+        <v>521741.85156472</v>
       </c>
       <c r="H2" t="n">
         <v>521741.8515647201</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985039</v>
@@ -26347,13 +26347,13 @@
         <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861774</v>
+        <v>302369.4048679844</v>
       </c>
       <c r="D3" t="n">
-        <v>12010.10621999438</v>
+        <v>85329.23106956828</v>
       </c>
       <c r="E3" t="n">
-        <v>431012.7433043215</v>
+        <v>589710.8045858941</v>
       </c>
       <c r="F3" t="n">
-        <v>143852.0300046401</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744865</v>
+        <v>10818.91345744848</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487763</v>
+        <v>70301.90739529383</v>
       </c>
       <c r="L3" t="n">
-        <v>3011.079893818277</v>
+        <v>20609.76383352451</v>
       </c>
       <c r="M3" t="n">
-        <v>112568.2270402479</v>
+        <v>154015.631254415</v>
       </c>
       <c r="N3" t="n">
-        <v>37822.10612282993</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888977</v>
+        <v>198159.2161991124</v>
       </c>
       <c r="D4" t="n">
-        <v>170887.6532318873</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
-        <v>14740.17028924231</v>
+        <v>14820.16342064201</v>
       </c>
       <c r="F4" t="n">
         <v>14820.16342064201</v>
@@ -26445,10 +26445,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186735</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587224</v>
+        <v>78719.83982550883</v>
       </c>
       <c r="D5" t="n">
-        <v>86134.07768055705</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
-        <v>88006.19635166987</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393202.1173548046</v>
+        <v>-393202.1173548045</v>
       </c>
       <c r="C6" t="n">
-        <v>-118235.1658191633</v>
+        <v>-45571.31048082138</v>
       </c>
       <c r="D6" t="n">
-        <v>264645.3132793453</v>
+        <v>188945.8473974463</v>
       </c>
       <c r="E6" t="n">
-        <v>-48865.78646552509</v>
+        <v>-182977.1499512201</v>
       </c>
       <c r="F6" t="n">
-        <v>262927.5296255996</v>
+        <v>406733.654634674</v>
       </c>
       <c r="G6" t="n">
-        <v>406779.5596302397</v>
+        <v>406733.6546346741</v>
       </c>
       <c r="H6" t="n">
-        <v>406779.5596302397</v>
+        <v>406733.6546346737</v>
       </c>
       <c r="I6" t="n">
-        <v>397877.1504752808</v>
+        <v>397842.4125498452</v>
       </c>
       <c r="J6" t="n">
-        <v>359631.1192041849</v>
+        <v>359596.3812787491</v>
       </c>
       <c r="K6" t="n">
-        <v>317436.1070678518</v>
+        <v>338359.4186119998</v>
       </c>
       <c r="L6" t="n">
-        <v>405684.9840389112</v>
+        <v>388051.5621737693</v>
       </c>
       <c r="M6" t="n">
-        <v>296127.8368924814</v>
+        <v>254645.6947528786</v>
       </c>
       <c r="N6" t="n">
-        <v>370873.9578098995</v>
+        <v>408661.3260072937</v>
       </c>
       <c r="O6" t="n">
-        <v>408696.0639327295</v>
+        <v>408661.3260072938</v>
       </c>
       <c r="P6" t="n">
-        <v>408696.0639327296</v>
+        <v>408661.3260072937</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>783.6114621533164</v>
       </c>
       <c r="D3" t="n">
-        <v>863.4191373688037</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.028328053766</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="H3" t="n">
         <v>1358.041048716386</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261631</v>
+        <v>460.6827294501074</v>
       </c>
       <c r="D4" t="n">
-        <v>554.0121790446897</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
-        <v>1005.723335527924</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247794</v>
+        <v>235.1415212404119</v>
       </c>
       <c r="D3" t="n">
-        <v>9.708472831119593</v>
+        <v>70.09920238436871</v>
       </c>
       <c r="E3" t="n">
-        <v>368.6091906849618</v>
+        <v>504.3303841787005</v>
       </c>
       <c r="F3" t="n">
-        <v>126.01272066262</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598431</v>
+        <v>273.1571422837876</v>
       </c>
       <c r="D4" t="n">
-        <v>11.89722231852662</v>
+        <v>81.43222727605685</v>
       </c>
       <c r="E4" t="n">
-        <v>451.7111564832344</v>
+        <v>618.0303335998419</v>
       </c>
       <c r="F4" t="n">
-        <v>154.4219547980824</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>12.56299777364188</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598429</v>
+        <v>273.1571422837876</v>
       </c>
       <c r="L4" t="n">
-        <v>11.89722231852684</v>
+        <v>81.43222727605685</v>
       </c>
       <c r="M4" t="n">
-        <v>451.7111564832344</v>
+        <v>618.0303335998419</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980824</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>273.1571422837876</v>
       </c>
       <c r="L4" t="n">
-        <v>11.89722231852662</v>
+        <v>81.43222727605685</v>
       </c>
       <c r="M4" t="n">
-        <v>451.7111564832344</v>
+        <v>618.0303335998419</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980824</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>235.1016825370009</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>227.9811835596687</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871033</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27464,22 +27464,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377092</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>177.0098510982671</v>
       </c>
       <c r="X3" t="n">
-        <v>181.3373405084513</v>
+        <v>18.24739803715755</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27558,7 +27558,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>48.68201325828521</v>
       </c>
       <c r="R4" t="n">
-        <v>112.8183423173782</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>25.29344133105332</v>
+        <v>182.3542364906097</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>307.2128488020882</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>89.02792617476476</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>137.234959259336</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.3058629286494</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0936371612143</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.95702499440587</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>41.49077643487231</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>41.03041096167762</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>140.3756754225237</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>184.6274981802108</v>
       </c>
       <c r="U6" t="n">
-        <v>67.24382013579205</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168.9643733242278</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>149.6636969338995</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>112.9556107173702</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>3.80838476244034</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>113.7566324950334</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>199.3906443820885</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>221.9079273428379</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2419528192299</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>172.8964461275047</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9270986360556</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.65893964714635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9239345398469</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>161.7634365872378</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.58049105334801</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>20.28249836383895</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8192001275736</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>245.6509059541417</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>118.5773223902187</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6276797401107</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>16.91655863091766</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.12871188675649</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2856691898563</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>196.882590064251</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2930157469153</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>114.5407287546293</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.045461874525414e-12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-3.467448550509289e-12</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>3.084969465812697e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>8.144319389745519e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29727,7 +29727,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-2.701199264265597e-12</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-4.933873724784616e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.636401452053564e-12</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-8.159872777468991e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.706357804527215e-12</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>3.150196832777149</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>32.26195331367899</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>121.4479633956412</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>267.3690184359198</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>400.7168503673766</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>497.1246866884804</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>553.146999613381</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>562.0974963645091</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>530.7727266085813</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>453.0022422993953</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>340.1858182255636</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>197.8835517969378</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>71.78511032690936</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>13.78998663548198</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2520157466221719</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.685503899726001</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>16.2784192420906</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>58.03160356512769</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>159.2431557192886</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>272.1719170009307</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>365.96873050849</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>427.0682468735574</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>438.3714725870709</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>401.0242545984053</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>321.8573192380292</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>215.1530942878314</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>104.6490930022863</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>31.30749568131408</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>6.793763525649977</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.110888414455658</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.413069849784669</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>12.56347557354007</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>42.49486420988806</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>99.90403837977608</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>164.1730243658915</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>210.0849483943498</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>221.5051219985185</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>216.238225285685</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>199.7310002222913</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>170.9043752866839</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>118.3253307851508</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>63.53675888213609</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>24.62595365488372</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>6.037662085443584</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.07707653726098203</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471031708015289</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.54770347971159</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8169499232596</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>294.5994774281629</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>441.5282496284501</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>547.7548362626231</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>609.48279640004</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>619.3448652404385</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>584.8297936938615</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>499.1386984022339</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.8323753589362</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0371955286156</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>79.09613504639847</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19444130183693</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2776825366412231</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857165691698936</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.93631075930289</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.94188894665199</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>175.4614305477491</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>299.8915318915778</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>403.2411735419116</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>470.563429865998</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>483.017843649365</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>441.8669617438254</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>354.6371924788961</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.0655714526572</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3071821565358</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.49603817695171</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.485681011716324</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1221819534012459</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.556985329681449</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84301502207689</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.8227951871476</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>110.0788628084784</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>180.8933864848083</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>231.4812552873675</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>244.0645276336111</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>238.2612186775259</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>220.0727991444289</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3102984189272</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.3762897426894</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>70.00772218731314</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>27.13400797272125</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.65257368136619</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08492647252807914</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.952877700718652</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>50.72365875248491</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
-        <v>190.945817556956</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3693037513701</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>630.0246168227907</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>781.6012477561593</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>869.6819865663145</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>883.7543503334815</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>834.5041726969604</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>712.2300044604685</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.8550718034817</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>311.1212038677683</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8637006051264</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>21.68122213489591</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3962302160574921</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.650023196191118</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>25.5936450790037</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>91.23983372851001</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>575.3920979273743</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>572.7698753627192</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>689.22686627604</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>630.5079312446474</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>506.0382013849514</v>
+        <v>344.3187317059974</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.2731364120452</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>164.5338963389539</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.22301857837447</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>10.68145314605104</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1743436313283631</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.221690427637938</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>19.75284762027186</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>66.81229031478455</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
-        <v>157.0735132340022</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>258.1200333201167</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>330.304775032644</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2600731250996</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>339.9792269857221</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>314.0258433537697</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
-        <v>268.7033586299556</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.0362775361186</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>99.89528050088397</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>38.7180049980175</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
-        <v>9.492677281725731</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1211831142347967</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396507</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504301</v>
@@ -32090,13 +32090,13 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>571.4938338238242</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -32236,25 +32236,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R17" t="n">
         <v>342.9428985987162</v>
@@ -32266,7 +32266,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H18" t="n">
         <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M18" t="n">
-        <v>191.7582174946653</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T18" t="n">
         <v>11.77395965821092</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H19" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L19" t="n">
         <v>364.0885788640618</v>
@@ -32403,13 +32403,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O19" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q19" t="n">
         <v>205.0641983561742</v>
@@ -32418,7 +32418,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32543,10 +32543,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>275.9770021735818</v>
@@ -32555,31 +32555,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
-        <v>189.7077409415967</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32625,7 +32625,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32634,16 +32634,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32655,7 +32655,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>301.6445156724565</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>163.5723821283056</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>539.0475940357389</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>253.1045048722855</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,22 +34214,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>728.6709493241814</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>86.32311390923354</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>180.626999322396</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>261.3582717184931</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>322.8007663861083</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>332.6844327679182</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>300.6745151868945</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>221.7692465441258</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>117.8801283511141</v>
       </c>
       <c r="R5" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6508773409395</v>
+        <v>32.40552905262192</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169987</v>
+        <v>134.3304780265717</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>227.4143507286158</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>284.9342129515391</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>307.0297605037376</v>
       </c>
       <c r="O6" t="n">
-        <v>294.302268944006</v>
+        <v>258.4280101539608</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>187.882911823699</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892906</v>
+        <v>75.17132020180983</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850724</v>
+        <v>35.1597661953561</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563528</v>
+        <v>75.20027211311151</v>
       </c>
       <c r="M7" t="n">
-        <v>102.3944289806455</v>
+        <v>82.57933805091349</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767807</v>
+        <v>88.55268082045177</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769682</v>
+        <v>61.27446177044848</v>
       </c>
       <c r="P7" t="n">
-        <v>48.46489236084162</v>
+        <v>33.17637123753627</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.5535729014766</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>221.4383985834696</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>311.9884212926359</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>379.1365631727673</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>389.9318016438476</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>354.7315822721747</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>267.9057026469644</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.5266854844868</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
-        <v>2.451657714483446</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.62380388108241</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>162.0500929172188</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>264.6867937620374</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>328.4293959439797</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>351.6761315660317</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>299.270717299381</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>220.6627850645658</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.08379736663571</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.88012831427295</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>96.59657900612922</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1387436860061</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>110.5756742122927</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>81.61626069258614</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>50.58229436977959</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.3233992246838</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9347657778101</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>545.834832786172</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>639.3357533390418</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3412867368907</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>604.4059612752736</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>480.997008705199</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5493819290322</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>95.53566605363613</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>436.8377181475001</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>430.6358414407008</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>557.8851541927068</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>487.9116868002029</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>372.0637939706212</v>
+        <v>210.3443242916671</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.2913623260237</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.85439237498994</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.7143331173294</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
-        <v>235.8505414942339</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>357.8948002929601</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>387.8439500869402</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
-        <v>384.1113993649507</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>338.6109712678094</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9819178948491</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.87423428442422</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977657</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284117</v>
@@ -35738,13 +35738,13 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>428.8975893793797</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M18" t="n">
-        <v>49.62418357264702</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M19" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O19" t="n">
         <v>370.7297545606359</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>149.1393755069151</v>
@@ -36203,25 +36203,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
-        <v>55.73333352726647</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36285,19 +36285,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.261899706042</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>159.048271228012</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096339</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>25.73094315394658</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>396.4513495912944</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>114.5501250924114</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>597.3292372408481</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096366</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
         <v>394.3420143191314</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572999011</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
